--- a/Excel and CSV Datenbank/Personal.xlsx
+++ b/Excel and CSV Datenbank/Personal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kien\Desktop\Seminar\Datenbank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kien\Desktop\Seminar\Excel and CSV Datenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>PNr</t>
   </si>
@@ -44,27 +44,6 @@
     <t>P03</t>
   </si>
   <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>P06</t>
-  </si>
-  <si>
-    <t>P07</t>
-  </si>
-  <si>
-    <t>P08</t>
-  </si>
-  <si>
-    <t>P09</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
     <t>Doktor</t>
   </si>
   <si>
@@ -78,27 +57,6 @@
   </si>
   <si>
     <t>Charlie</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t>Foxtrot</t>
-  </si>
-  <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Kilo</t>
   </si>
 </sst>
 </file>
@@ -154,8 +112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
     <tableColumn id="1" name="PNr"/>
     <tableColumn id="2" name="Name"/>
@@ -428,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,10 +414,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -467,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -478,87 +436,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
